--- a/biology/Zoologie/Aulorhynchidae/Aulorhynchidae.xlsx
+++ b/biology/Zoologie/Aulorhynchidae/Aulorhynchidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aulorhynchidae sont une famille de poissons téléostéens de l'ordre des Gasterosteiformes ou des Perciformes selon les classifications.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le World Register of Marine Species, cette famille ne serait composée que d'un genre monotypique avec l'espèce  Aulorhynchus flavidus.
 Le genre Aulichthys considéré comme faisant partie de cette famille par l'ITIS serait, pour le WRMS, à rattacher à la famille des Hypoptychidae.
@@ -543,11 +557,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (18 août 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (18 août 2021) :
 genre Aulorhynchus
-Selon ITIS      (18 août 2021)[3] :
+Selon ITIS      (18 août 2021) :
 genre Aulichthys Brevoort in Gill, 1862
 genre Aulorhynchus Gill, 1861</t>
         </is>
